--- a/src/data/TAS.xlsx
+++ b/src/data/TAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matem\Documents\Proyecto Sintaxis Node\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F889DE20-206B-4B5F-9BC2-FCC17F42CA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EBE203-B5BE-4B38-9873-74E940FE0018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6095503F-FFCD-4044-8A2E-DC04238B6896}"/>
   </bookViews>
@@ -36,198 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
-  <si>
-    <t xml:space="preserve">DeclaracionVar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Declaracion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entero' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digito </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuerpo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secuencia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentencia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asignacion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpArit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpArit' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termino </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termino' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factor' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potencia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadena </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caracteres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caracter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escribir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiEntSino </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiEntSino' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">While </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incremento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ValorInicial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParteDecimalOpt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CondFor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">opRel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cond </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Program</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>:=</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>Write</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>then</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>i++</t>
-  </si>
-  <si>
-    <t>i+=</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = </t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&lt;&gt;</t>
-  </si>
-  <si>
-    <t>!=</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ^</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Numeros</t>
-  </si>
-  <si>
-    <t>Letras</t>
   </si>
   <si>
     <t>Program id ; DeclaracionVar Cuerpo end</t>
@@ -236,104 +47,23 @@
     <t>ε</t>
   </si>
   <si>
-    <t>Digito Entero'</t>
+    <t>end</t>
   </si>
   <si>
-    <t>{ Secuencia }</t>
+    <t>Programa</t>
   </si>
   <si>
-    <t> Declaracion DeclaracionVar.</t>
+    <t>DeclaracionVar</t>
   </si>
   <si>
-    <t>id := ExpArit</t>
-  </si>
-  <si>
-    <t>Asignacion ;</t>
-  </si>
-  <si>
-    <t>Leer ;</t>
-  </si>
-  <si>
-    <t>Escribir ;</t>
-  </si>
-  <si>
-    <t>SiEntSino</t>
-  </si>
-  <si>
-    <t>While</t>
-  </si>
-  <si>
-    <t>For</t>
-  </si>
-  <si>
-    <t>Termino ExpArit'</t>
-  </si>
-  <si>
-    <t>Factor Termino'</t>
-  </si>
-  <si>
-    <t>* Factor Termino'</t>
-  </si>
-  <si>
-    <t>/ Factor Termino'</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Potencia Factor'</t>
-  </si>
-  <si>
-    <t> ^ Potencia Factor'</t>
-  </si>
-  <si>
-    <t>Caracteres</t>
-  </si>
-  <si>
-    <t>else { Secuencia }</t>
-  </si>
-  <si>
-    <t>while ( Cond ) do { Secuencia Incremento }</t>
-  </si>
-  <si>
-    <t>i+=Entero</t>
-  </si>
-  <si>
-    <t>for ( ValorInicial ; CondFor ; Incremento ) { Secuencia }</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>i = Numero</t>
-  </si>
-  <si>
-    <t>Entero ParteDecimalOpt</t>
-  </si>
-  <si>
-    <t>. Entero</t>
-  </si>
-  <si>
-    <t>i opRel Numero</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =</t>
-  </si>
-  <si>
-    <t>ExpArit opRel ExpAri</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>end</t>
+    <t>Cuerpo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +97,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC5C8C6"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -578,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -588,7 +332,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -606,6 +349,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82774AAF-7E83-4502-8B3F-D4E685BC2908}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF41" sqref="AF41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,109 +710,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
-        <v>33</v>
+      <c r="A1" s="23"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>34</v>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -1078,11 +759,11 @@
       <c r="AQ1" s="1"/>
     </row>
     <row r="2" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1114,27 +795,21 @@
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="22" t="s">
-        <v>65</v>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+    </row>
+    <row r="3" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
       </c>
-      <c r="AI2" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1161,18 +836,18 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="16"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="15"/>
       <c r="AJ3" s="2"/>
     </row>
     <row r="4" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1203,16 +878,14 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="16"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="15"/>
       <c r="AJ4" s="2"/>
     </row>
     <row r="5" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1242,19 +915,15 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-      <c r="AF5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="16"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="15"/>
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1264,9 +933,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="L6" s="3"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1274,49 +941,27 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="16"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="15"/>
       <c r="AJ6" s="2"/>
     </row>
     <row r="7" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1347,22 +992,18 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="16"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="15"/>
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1389,23 +1030,19 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="16"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="15"/>
       <c r="AJ8" s="2"/>
     </row>
     <row r="9" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1415,12 +1052,8 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -1435,45 +1068,31 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="16"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="15"/>
       <c r="AJ9" s="2"/>
     </row>
     <row r="10" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="O10" s="3"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -1487,19 +1106,15 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="16"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="15"/>
       <c r="AJ10" s="2"/>
     </row>
     <row r="11" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1529,16 +1144,14 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="16"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="15"/>
       <c r="AJ11" s="2"/>
     </row>
     <row r="12" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1569,19 +1182,15 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="16"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="15"/>
       <c r="AJ12" s="2"/>
     </row>
     <row r="13" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1589,12 +1198,8 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1602,48 +1207,28 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="16"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="15"/>
       <c r="AJ13" s="2"/>
     </row>
     <row r="14" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1651,9 +1236,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="K14" s="3"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1674,19 +1257,16 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="16"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="15"/>
       <c r="AJ14" s="2"/>
+      <c r="AM14" s="22"/>
     </row>
     <row r="15" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1696,9 +1276,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="L15" s="3"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1706,50 +1284,28 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="16"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="15"/>
       <c r="AJ15" s="2"/>
     </row>
     <row r="16" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1757,9 +1313,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1780,19 +1334,15 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="16"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="15"/>
       <c r="AJ16" s="2"/>
     </row>
     <row r="17" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1802,9 +1352,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="L17" s="3"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1812,49 +1360,27 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="16"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="15"/>
       <c r="AJ17" s="2"/>
     </row>
     <row r="18" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1884,19 +1410,15 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="16"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="15"/>
       <c r="AJ18" s="2"/>
     </row>
     <row r="19" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1927,16 +1449,14 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="16"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="15"/>
       <c r="AJ19" s="2"/>
     </row>
     <row r="20" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1966,21 +1486,15 @@
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG20" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="16"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="15"/>
       <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2011,16 +1525,14 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="16"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="15"/>
       <c r="AJ21" s="2"/>
     </row>
     <row r="22" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2051,16 +1563,14 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="16"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="15"/>
       <c r="AJ22" s="2"/>
     </row>
     <row r="23" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2091,16 +1601,14 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="16"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="15"/>
       <c r="AJ23" s="2"/>
     </row>
     <row r="24" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2131,53 +1639,31 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="16"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="15"/>
       <c r="AJ24" s="2"/>
     </row>
     <row r="25" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -2191,16 +1677,14 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="16"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="15"/>
       <c r="AJ25" s="2"/>
     </row>
     <row r="26" spans="1:36" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="10"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2213,9 +1697,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="12" t="s">
-        <v>85</v>
-      </c>
+      <c r="O26" s="11"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -2233,16 +1715,14 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="16"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="15"/>
       <c r="AJ26" s="2"/>
     </row>
     <row r="27" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="10"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2257,12 +1737,8 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -2277,16 +1753,14 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="16"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="15"/>
       <c r="AJ27" s="2"/>
     </row>
     <row r="28" spans="1:36" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2303,9 +1777,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="S28" s="11"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -2319,16 +1791,14 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="16"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="15"/>
       <c r="AJ28" s="2"/>
     </row>
     <row r="29" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="10"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2356,21 +1826,17 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="16"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="15"/>
       <c r="AJ29" s="2"/>
     </row>
     <row r="30" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="10"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2400,35 +1866,25 @@
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
-      <c r="AF30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="16"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="15"/>
       <c r="AJ30" s="2"/>
     </row>
     <row r="31" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="10"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="L31" s="5"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2447,20 +1903,16 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
-      <c r="AE31" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE31" s="3"/>
       <c r="AF31" s="4"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="16"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="15"/>
       <c r="AJ31" s="2"/>
     </row>
     <row r="32" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="10"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2488,21 +1940,17 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="AD32" s="3"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="16"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="15"/>
       <c r="AJ32" s="2"/>
     </row>
     <row r="33" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="10"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2520,21 +1968,11 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="X33" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
@@ -2543,51 +1981,47 @@
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="16"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="15"/>
       <c r="AJ33" s="2"/>
     </row>
     <row r="34" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="21"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="20"/>
       <c r="AJ34" s="2"/>
     </row>
     <row r="35" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3">

--- a/src/data/TAS.xlsx
+++ b/src/data/TAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matem\Documents\Proyecto Sintaxis Node\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155E181F-0FAA-4723-B16A-B43F9F7C635E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388CC2D2-0AE1-4270-8769-B11799AD803A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6095503F-FFCD-4044-8A2E-DC04238B6896}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
   <si>
     <t xml:space="preserve">DeclaracionVar </t>
   </si>
@@ -708,8 +708,26 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">For ( </t>
+    <t>Condicion</t>
+  </si>
+  <si>
+    <t>TerminoLogico CondicionPrima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CondicionPrima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TerminoLogico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TerminoLogicoPrima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FactorLogico </t>
+  </si>
+  <si>
+    <r>
+      <t>or</t>
     </r>
     <r>
       <rPr>
@@ -719,7 +737,119 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Asignacion</t>
+      <t xml:space="preserve"> TerminoLogico CondicionPrima</t>
+    </r>
+  </si>
+  <si>
+    <t>FactorLogico TerminoLogicoPrima</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FactorLogico TerminoLogicoPrima </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ExpArit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">opRel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ExpArit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">not </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FactorLogico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Condicion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>While</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Asignacion </t>
     </r>
     <r>
       <rPr>
@@ -738,7 +868,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Condicion</t>
+      <t xml:space="preserve">Condicion </t>
     </r>
     <r>
       <rPr>
@@ -789,134 +919,7 @@
     </r>
   </si>
   <si>
-    <t>Condicion</t>
-  </si>
-  <si>
-    <t>TerminoLogico CondicionPrima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CondicionPrima </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TerminoLogico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TerminoLogicoPrima </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FactorLogico </t>
-  </si>
-  <si>
-    <r>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> TerminoLogico CondicionPrima</t>
-    </r>
-  </si>
-  <si>
-    <t>FactorLogico TerminoLogicoPrima</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>FactorLogico TerminoLogicoPrima </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ExpArit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">opRel </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ExpArit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">not </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>FactorLogico</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Condicion </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>For</t>
-  </si>
-  <si>
-    <t>While</t>
+    <t>opRel</t>
   </si>
 </sst>
 </file>
@@ -974,7 +977,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1055,11 +1058,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1092,6 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1428,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82774AAF-7E83-4502-8B3F-D4E685BC2908}">
   <dimension ref="A1:AQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="56" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="56" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="AO24" sqref="AO24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,7 +1526,7 @@
         <v>33</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>34</v>
@@ -1576,7 +1591,9 @@
       <c r="AM1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AN1" s="1"/>
+      <c r="AN1" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
@@ -1837,7 +1854,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="10" t="s">
@@ -2137,6 +2154,9 @@
         <v>48</v>
       </c>
       <c r="AM12" s="12"/>
+      <c r="AN12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -2253,6 +2273,9 @@
         <v>48</v>
       </c>
       <c r="AM14" s="12"/>
+      <c r="AN14" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -2371,6 +2394,9 @@
         <v>48</v>
       </c>
       <c r="AM16" s="12"/>
+      <c r="AN16" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -2773,7 +2799,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="11" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -2840,16 +2866,16 @@
     </row>
     <row r="27" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="11"/>
       <c r="F27" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -2859,7 +2885,7 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -2872,11 +2898,11 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -2936,7 +2962,7 @@
     </row>
     <row r="29" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2983,22 +3009,22 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="12"/>
       <c r="AL29" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM29" s="12"/>
     </row>
     <row r="30" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -3008,7 +3034,7 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -3021,7 +3047,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -3034,7 +3060,7 @@
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK30" s="12"/>
       <c r="AL30" s="12"/>
@@ -3042,7 +3068,7 @@
     </row>
     <row r="31" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3088,7 +3114,7 @@
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
       <c r="AK31" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL31" s="11" t="s">
         <v>48</v>
@@ -3097,16 +3123,16 @@
     </row>
     <row r="32" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -3116,7 +3142,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
@@ -3129,11 +3155,11 @@
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z32" s="20"/>
       <c r="AA32" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>

--- a/src/data/TAS.xlsx
+++ b/src/data/TAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matem\Documents\Proyecto Sintaxis Node\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388CC2D2-0AE1-4270-8769-B11799AD803A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898BE23-21C5-4691-8CFD-3C38FCEE62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6095503F-FFCD-4044-8A2E-DC04238B6896}"/>
   </bookViews>
@@ -665,8 +665,26 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">While </t>
+    <t>Condicion</t>
+  </si>
+  <si>
+    <t>TerminoLogico CondicionPrima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CondicionPrima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TerminoLogico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TerminoLogicoPrima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FactorLogico </t>
+  </si>
+  <si>
+    <r>
+      <t>or</t>
     </r>
     <r>
       <rPr>
@@ -676,6 +694,202 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve"> TerminoLogico CondicionPrima</t>
+    </r>
+  </si>
+  <si>
+    <t>FactorLogico TerminoLogicoPrima</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FactorLogico TerminoLogicoPrima </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ExpArit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">opRel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ExpArit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">not </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FactorLogico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Condicion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Asignacion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Condicion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Asignacion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Secuencia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">} </t>
+    </r>
+  </si>
+  <si>
+    <t>opRel</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>Condicion</t>
     </r>
     <r>
@@ -706,220 +920,6 @@
       </rPr>
       <t>}</t>
     </r>
-  </si>
-  <si>
-    <t>Condicion</t>
-  </si>
-  <si>
-    <t>TerminoLogico CondicionPrima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CondicionPrima </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TerminoLogico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TerminoLogicoPrima </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FactorLogico </t>
-  </si>
-  <si>
-    <r>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> TerminoLogico CondicionPrima</t>
-    </r>
-  </si>
-  <si>
-    <t>FactorLogico TerminoLogicoPrima</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>FactorLogico TerminoLogicoPrima </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ExpArit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">opRel </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ExpArit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">not </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>FactorLogico</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Condicion </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>While</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">for ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Asignacion </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Condicion </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Asignacion </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Secuencia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">} </t>
-    </r>
-  </si>
-  <si>
-    <t>opRel</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82774AAF-7E83-4502-8B3F-D4E685BC2908}">
   <dimension ref="A1:AQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="56" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="AO24" sqref="AO24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="56" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,13 +1526,13 @@
         <v>33</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>35</v>
@@ -1592,7 +1592,7 @@
         <v>85</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
@@ -2752,7 +2752,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="11" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
@@ -2799,7 +2799,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -2866,16 +2866,16 @@
     </row>
     <row r="27" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="11"/>
       <c r="F27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -2885,7 +2885,7 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -2898,11 +2898,11 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="29" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3009,22 +3009,22 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="12"/>
       <c r="AL29" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AM29" s="12"/>
     </row>
     <row r="30" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -3034,7 +3034,7 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -3047,7 +3047,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -3060,7 +3060,7 @@
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK30" s="12"/>
       <c r="AL30" s="12"/>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="31" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3114,7 +3114,7 @@
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
       <c r="AK31" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL31" s="11" t="s">
         <v>48</v>
@@ -3123,16 +3123,16 @@
     </row>
     <row r="32" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -3142,7 +3142,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
@@ -3155,11 +3155,11 @@
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z32" s="20"/>
       <c r="AA32" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>

--- a/src/data/TAS.xlsx
+++ b/src/data/TAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matem\Documents\Proyecto Sintaxis Node\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898BE23-21C5-4691-8CFD-3C38FCEE62A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89FFE44-A8E3-4A30-BB64-343A71DAD6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6095503F-FFCD-4044-8A2E-DC04238B6896}"/>
   </bookViews>
@@ -977,7 +977,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1062,18 +1062,72 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1100,13 +1154,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1443,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82774AAF-7E83-4502-8B3F-D4E685BC2908}">
   <dimension ref="A1:AQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="56" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="AR27" sqref="AR27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1588,10 +1648,10 @@
       <c r="AL1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>105</v>
       </c>
       <c r="AO1" s="1"/>
@@ -1641,7 +1701,8 @@
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="29"/>
     </row>
     <row r="3" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1688,7 +1749,8 @@
       <c r="AJ3" s="9"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="12"/>
     </row>
     <row r="4" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -1733,7 +1795,8 @@
       <c r="AJ4" s="9"/>
       <c r="AK4" s="12"/>
       <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="12"/>
     </row>
     <row r="5" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -1782,7 +1845,8 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="12"/>
       <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="12"/>
     </row>
     <row r="6" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -1837,7 +1901,8 @@
       <c r="AJ6" s="9"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="12"/>
     </row>
     <row r="7" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -1892,7 +1957,8 @@
       <c r="AJ7" s="9"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="12"/>
     </row>
     <row r="8" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -1945,7 +2011,8 @@
       <c r="AJ8" s="9"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="12"/>
     </row>
     <row r="9" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -1990,7 +2057,8 @@
       <c r="AJ9" s="9"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="12"/>
     </row>
     <row r="10" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
@@ -2041,7 +2109,8 @@
       <c r="AJ10" s="9"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="12"/>
     </row>
     <row r="11" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -2092,7 +2161,8 @@
       <c r="AJ11" s="9"/>
       <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="12"/>
     </row>
     <row r="12" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -2153,8 +2223,8 @@
       <c r="AL12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AM12" s="12"/>
-      <c r="AN12" t="s">
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2207,7 +2277,8 @@
       <c r="AJ13" s="9"/>
       <c r="AK13" s="12"/>
       <c r="AL13" s="12"/>
-      <c r="AM13" s="18"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="12"/>
     </row>
     <row r="14" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -2272,8 +2343,8 @@
       <c r="AL14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="24" t="s">
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="30" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2326,7 +2397,8 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="12"/>
       <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="12"/>
     </row>
     <row r="16" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2393,12 +2465,12 @@
       <c r="AL16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="24" t="s">
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -2433,7 +2505,7 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="19" t="s">
+      <c r="AA17" s="18" t="s">
         <v>80</v>
       </c>
       <c r="AB17" s="9"/>
@@ -2447,9 +2519,10 @@
       <c r="AJ17" s="9"/>
       <c r="AK17" s="12"/>
       <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="12"/>
     </row>
-    <row r="18" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -2492,9 +2565,10 @@
       <c r="AJ18" s="9"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
-      <c r="AM18" s="12"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="12"/>
     </row>
-    <row r="19" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -2537,9 +2611,10 @@
       <c r="AJ19" s="9"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
-      <c r="AM19" s="12"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="12"/>
     </row>
-    <row r="20" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
@@ -2588,11 +2663,12 @@
       <c r="AJ20" s="9"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
-      <c r="AM20" s="11" t="s">
+      <c r="AM20" s="26" t="s">
         <v>86</v>
       </c>
+      <c r="AN20" s="12"/>
     </row>
-    <row r="21" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -2637,9 +2713,10 @@
       </c>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="12"/>
     </row>
-    <row r="22" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -2682,9 +2759,10 @@
       <c r="AJ22" s="9"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="12"/>
     </row>
-    <row r="23" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -2729,9 +2807,10 @@
       <c r="AJ23" s="9"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="12"/>
     </row>
-    <row r="24" spans="1:39" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -2774,9 +2853,10 @@
       <c r="AJ24" s="9"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
-      <c r="AM24" s="12"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="12"/>
     </row>
-    <row r="25" spans="1:39" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -2819,9 +2899,10 @@
       <c r="AJ25" s="9"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="12"/>
-      <c r="AM25" s="12"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="12"/>
     </row>
-    <row r="26" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -2862,9 +2943,10 @@
       <c r="AJ26" s="9"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="12"/>
     </row>
-    <row r="27" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>91</v>
       </c>
@@ -2915,9 +2997,10 @@
       <c r="AJ27" s="9"/>
       <c r="AK27" s="12"/>
       <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="12"/>
     </row>
-    <row r="28" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -2958,9 +3041,10 @@
       <c r="AJ28" s="9"/>
       <c r="AK28" s="12"/>
       <c r="AL28" s="12"/>
-      <c r="AM28" s="12"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="12"/>
     </row>
-    <row r="29" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>93</v>
       </c>
@@ -3011,9 +3095,10 @@
       <c r="AL29" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AM29" s="12"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="12"/>
     </row>
-    <row r="30" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>
@@ -3064,9 +3149,10 @@
       </c>
       <c r="AK30" s="12"/>
       <c r="AL30" s="12"/>
-      <c r="AM30" s="12"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="12"/>
     </row>
-    <row r="31" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>95</v>
       </c>
@@ -3119,60 +3205,62 @@
       <c r="AL31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AM31" s="12"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="12"/>
     </row>
-    <row r="32" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="22" t="s">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="22" t="s">
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="21" t="s">
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
-      <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="23"/>
-      <c r="AL32" s="23"/>
-      <c r="AM32" s="23"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="22"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/src/data/TAS.xlsx
+++ b/src/data/TAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matem\Documents\Proyecto Sintaxis Node\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89FFE44-A8E3-4A30-BB64-343A71DAD6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666786F-3A6F-4100-B503-040293439EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6095503F-FFCD-4044-8A2E-DC04238B6896}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="117">
   <si>
     <t xml:space="preserve">DeclaracionVar </t>
   </si>
@@ -98,9 +98,6 @@
     <t xml:space="preserve">For </t>
   </si>
   <si>
-    <t xml:space="preserve">ValorInicial </t>
-  </si>
-  <si>
     <t>Program</t>
   </si>
   <si>
@@ -143,21 +140,6 @@
     <t>do</t>
   </si>
   <si>
-    <t xml:space="preserve"> = </t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&lt;&gt;</t>
-  </si>
-  <si>
-    <t>!=</t>
-  </si>
-  <si>
     <t xml:space="preserve"> +</t>
   </si>
   <si>
@@ -173,15 +155,6 @@
     <t xml:space="preserve"> ^</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Numeros</t>
-  </si>
-  <si>
-    <t>Letras</t>
-  </si>
-  <si>
     <t>ε</t>
   </si>
   <si>
@@ -194,9 +167,6 @@
     <t>Potencia Factor'</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
@@ -351,8 +321,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">id := </t>
+    <t>AsignacionDetalle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
@@ -362,15 +335,18 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>AsignacionDetalle</t>
-    </r>
-  </si>
-  <si>
-    <t>AsignacionDetalle</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+ </t>
+      <t>Termino ExpArit'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
@@ -384,38 +360,101 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
+    <t>,</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Factor Termino'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Factor Termino'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">^ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Potencia Factor'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ExpArit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Termino ExpArit'</t>
-    </r>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Potencia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Read ( </t>
     </r>
     <r>
       <rPr>
@@ -425,12 +464,21 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Factor Termino'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">/ </t>
+      <t xml:space="preserve">Cadena </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Write (</t>
     </r>
     <r>
       <rPr>
@@ -440,12 +488,30 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Factor Termino'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">^ </t>
+      <t xml:space="preserve"> ListaEscritura </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>ListaEscritura</t>
+  </si>
+  <si>
+    <t>ListaCadena</t>
+  </si>
+  <si>
+    <t>Cadena</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cadena </t>
     </r>
     <r>
       <rPr>
@@ -455,7 +521,147 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Potencia Factor'</t>
+      <t xml:space="preserve">ListaCadena </t>
+    </r>
+  </si>
+  <si>
+    <t>ExpArit ListaCadena</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ListaEscritura</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Condicion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> then { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Secuencia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SiEntSino'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">else { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Secuencia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Condicion</t>
+  </si>
+  <si>
+    <t>TerminoLogico CondicionPrima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CondicionPrima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TerminoLogico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TerminoLogicoPrima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FactorLogico </t>
+  </si>
+  <si>
+    <t>FactorLogico TerminoLogicoPrima</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ExpArit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">opRel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ExpArit</t>
     </r>
   </si>
   <si>
@@ -470,7 +676,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ExpArit </t>
+      <t xml:space="preserve">Condicion </t>
     </r>
     <r>
       <rPr>
@@ -481,25 +687,23 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- </t>
-    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Potencia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Read ( </t>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for ( </t>
     </r>
     <r>
       <rPr>
@@ -509,21 +713,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Cadena </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Write (</t>
+      <t xml:space="preserve">Asignacion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
     </r>
     <r>
       <rPr>
@@ -533,30 +732,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> ListaEscritura </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>ListaEscritura</t>
-  </si>
-  <si>
-    <t>ListaCadena</t>
-  </si>
-  <si>
-    <t>Cadena</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cadena </t>
+      <t xml:space="preserve">Condicion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
     </r>
     <r>
       <rPr>
@@ -566,15 +751,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">ListaCadena </t>
-    </r>
-  </si>
-  <si>
-    <t>ExpArit ListaCadena</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
+      <t xml:space="preserve">Asignacion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) { </t>
     </r>
     <r>
       <rPr>
@@ -584,12 +770,27 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ListaEscritura</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> if </t>
+      <t xml:space="preserve">Secuencia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">} </t>
+    </r>
+  </si>
+  <si>
+    <t>opRel</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">while </t>
     </r>
     <r>
       <rPr>
@@ -608,7 +809,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> then { </t>
+      <t xml:space="preserve"> do { </t>
     </r>
     <r>
       <rPr>
@@ -618,16 +819,42 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Secuencia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">} </t>
+      <t>Secuencia Asignacion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>TipoBase</t>
+  </si>
+  <si>
+    <t>TipoArreglo</t>
+  </si>
+  <si>
+    <t>TipoBase TipoArreglo</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Variable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:=</t>
     </r>
     <r>
       <rPr>
@@ -637,12 +864,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SiEntSino'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">else { </t>
+      <t xml:space="preserve"> AsignacionDetalle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
     </r>
     <r>
       <rPr>
@@ -652,39 +879,21 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Secuencia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>Condicion</t>
-  </si>
-  <si>
-    <t>TerminoLogico CondicionPrima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CondicionPrima </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TerminoLogico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TerminoLogicoPrima </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FactorLogico </t>
-  </si>
-  <si>
-    <r>
-      <t>or</t>
+      <t>AccesoArreglo</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AccesoArreglo </t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -694,15 +903,57 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve"> ExpArit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[ ]</t>
+  </si>
+  <si>
+    <t>LiteralArray</t>
+  </si>
+  <si>
+    <t>[ ListaElementos ]</t>
+  </si>
+  <si>
+    <t>ListaElementos</t>
+  </si>
+  <si>
+    <t>ExpArit ListaElementosPrima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListaElementosPrima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termino ExpArit' </t>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve"> TerminoLogico CondicionPrima</t>
     </r>
   </si>
   <si>
-    <t>FactorLogico TerminoLogicoPrima</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">and </t>
+    <r>
+      <t xml:space="preserve">&amp; </t>
     </r>
     <r>
       <rPr>
@@ -717,16 +968,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ExpArit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">opRel </t>
+      <t xml:space="preserve">! </t>
     </r>
     <r>
       <rPr>
@@ -736,12 +978,18 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ExpArit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">not </t>
+      <t>FactorLogico</t>
+    </r>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiteralArray </t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -751,174 +999,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>FactorLogico</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Condicion </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">for ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Asignacion </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Condicion </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Asignacion </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Secuencia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">} </t>
-    </r>
-  </si>
-  <si>
-    <t>opRel</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">while </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Condicion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> do { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Secuencia Asignacion </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>}</t>
+      <t>, ExpArit ListaElementosPrim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
     </r>
   </si>
 </sst>
@@ -977,7 +1067,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1123,11 +1213,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1166,7 +1267,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1501,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82774AAF-7E83-4502-8B3F-D4E685BC2908}">
-  <dimension ref="A1:AQ33"/>
+  <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="AR27" sqref="AR27"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,7 +1623,9 @@
     <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="2" width="45.109375" customWidth="1"/>
     <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1"/>
     <col min="6" max="6" width="40.21875" customWidth="1"/>
+    <col min="7" max="7" width="42.77734375" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="25.77734375" customWidth="1"/>
     <col min="11" max="11" width="20.21875" customWidth="1"/>
@@ -1522,148 +1635,127 @@
     <col min="17" max="17" width="22.33203125" customWidth="1"/>
     <col min="18" max="18" width="53.21875" customWidth="1"/>
     <col min="20" max="20" width="64.88671875" customWidth="1"/>
-    <col min="25" max="25" width="42" customWidth="1"/>
-    <col min="26" max="26" width="25.77734375" customWidth="1"/>
-    <col min="27" max="27" width="42.5546875" customWidth="1"/>
-    <col min="28" max="28" width="23.21875" customWidth="1"/>
-    <col min="29" max="30" width="22" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" customWidth="1"/>
-    <col min="33" max="33" width="24.33203125" customWidth="1"/>
-    <col min="36" max="36" width="43.77734375" customWidth="1"/>
-    <col min="37" max="37" width="50.21875" customWidth="1"/>
-    <col min="38" max="38" width="37.44140625" customWidth="1"/>
-    <col min="39" max="39" width="25.44140625" customWidth="1"/>
+    <col min="21" max="21" width="42" customWidth="1"/>
+    <col min="22" max="22" width="25.77734375" customWidth="1"/>
+    <col min="23" max="23" width="42.5546875" customWidth="1"/>
+    <col min="24" max="24" width="23.21875" customWidth="1"/>
+    <col min="25" max="26" width="22" customWidth="1"/>
+    <col min="28" max="28" width="43.77734375" customWidth="1"/>
+    <col min="29" max="29" width="50.21875" customWidth="1"/>
+    <col min="30" max="30" width="39.88671875" customWidth="1"/>
+    <col min="31" max="31" width="25.44140625" customWidth="1"/>
+    <col min="33" max="33" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>46</v>
+        <v>91</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM1" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-    </row>
-    <row r="2" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="AI1" s="1"/>
+    </row>
+    <row r="2" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1689,28 +1781,22 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+      <c r="AA2" s="8"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="23"/>
       <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="29"/>
-    </row>
-    <row r="3" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="29"/>
+    </row>
+    <row r="3" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1718,7 +1804,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -1739,26 +1825,20 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="12"/>
-    </row>
-    <row r="4" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="12"/>
+    </row>
+    <row r="4" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1785,34 +1865,28 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="12"/>
-    </row>
-    <row r="5" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="12"/>
+    </row>
+    <row r="5" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>59</v>
+      <c r="E5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1835,54 +1909,42 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="12"/>
-    </row>
-    <row r="6" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="12"/>
+    </row>
+    <row r="6" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="R6" s="9"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
@@ -1891,54 +1953,38 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="12"/>
-    </row>
-    <row r="7" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="12"/>
+    </row>
+    <row r="7" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
@@ -1947,51 +1993,49 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="12"/>
-    </row>
-    <row r="8" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH7" s="12"/>
+    </row>
+    <row r="8" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="14" t="s">
-        <v>64</v>
+      <c r="C8" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>66</v>
+      <c r="I8" s="11"/>
+      <c r="J8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="10" t="s">
-        <v>67</v>
+      <c r="R8" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="S8" s="9"/>
-      <c r="T8" s="11" t="s">
-        <v>68</v>
+      <c r="T8" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -2001,26 +2045,20 @@
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="12"/>
-    </row>
-    <row r="9" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="12"/>
+    </row>
+    <row r="9" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="11" t="s">
-        <v>69</v>
+      <c r="C9" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -2028,17 +2066,27 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="L9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="R9" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="T9" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -2047,94 +2095,82 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="12"/>
-    </row>
-    <row r="10" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="12"/>
+    </row>
+    <row r="10" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
+      <c r="C10" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="R10" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
+      <c r="T10" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="12"/>
-    </row>
-    <row r="11" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="12"/>
+    </row>
+    <row r="11" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -2147,32 +2183,24 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="12"/>
-    </row>
-    <row r="12" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="12"/>
+    </row>
+    <row r="12" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="C12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2182,186 +2210,164 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA12" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="12"/>
+    </row>
+    <row r="13" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
+      <c r="S13" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="12"/>
-    </row>
-    <row r="14" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U13" s="35"/>
+      <c r="V13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG13" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="N14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH14" s="12"/>
+    </row>
+    <row r="15" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2369,45 +2375,41 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="12"/>
-    </row>
-    <row r="16" spans="1:43" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH15" s="12"/>
+    </row>
+    <row r="16" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2418,80 +2420,72 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T16" s="9"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA16" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="V16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
       <c r="AB16" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AC16" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>22</v>
+      <c r="C17" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="9"/>
+      <c r="F17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="11" t="s">
-        <v>79</v>
+      <c r="N17" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -2501,193 +2495,229 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="W17" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="12"/>
-    </row>
-    <row r="18" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH17" s="12"/>
+    </row>
+    <row r="18" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
+      <c r="O18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
+      <c r="S18" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="12"/>
-    </row>
-    <row r="19" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="F19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="N19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="11"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="12"/>
-    </row>
-    <row r="20" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH19" s="12"/>
+    </row>
+    <row r="20" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="11"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN20" s="12"/>
-    </row>
-    <row r="21" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U20" s="11"/>
+      <c r="V20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="11"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="N21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -2695,33 +2725,29 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="W21" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="12"/>
-    </row>
-    <row r="22" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH21" s="12"/>
+    </row>
+    <row r="22" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -2731,10 +2757,8 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="N22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -2743,82 +2767,80 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
+      <c r="W22" s="18"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="12"/>
-    </row>
-    <row r="23" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH22" s="12"/>
+    </row>
+    <row r="23" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="C23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="F23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" s="11"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="11"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
+      <c r="W23" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="12"/>
-    </row>
-    <row r="24" spans="1:40" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>18</v>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH23" s="12"/>
+    </row>
+    <row r="24" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="30" t="s">
+        <v>109</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -2826,39 +2848,35 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="N24" s="36"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
+      <c r="W24" s="36"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="12"/>
-    </row>
-    <row r="25" spans="1:40" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB24" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2869,7 +2887,9 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="K25" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -2878,9 +2898,7 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="11" t="s">
-        <v>104</v>
-      </c>
+      <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
@@ -2889,22 +2907,16 @@
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="24"/>
-      <c r="AN25" s="12"/>
-    </row>
-    <row r="26" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="12"/>
+    </row>
+    <row r="26" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2916,7 +2928,9 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="L26" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2933,41 +2947,37 @@
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="12"/>
-    </row>
-    <row r="27" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="12"/>
+    </row>
+    <row r="27" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="9"/>
       <c r="N27" s="10" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -2977,32 +2987,28 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
+      <c r="W27" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="X27" s="9"/>
-      <c r="Y27" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
-      <c r="AA27" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="24"/>
-      <c r="AN27" s="12"/>
-    </row>
-    <row r="28" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH27" s="12"/>
+    </row>
+    <row r="28" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3014,10 +3020,12 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="O28" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
@@ -3030,29 +3038,23 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="12"/>
-    </row>
-    <row r="29" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="12"/>
+    </row>
+    <row r="29" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -3061,19 +3063,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="N29" s="9"/>
-      <c r="O29" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
@@ -3083,84 +3081,62 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="12"/>
-    </row>
-    <row r="30" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="12"/>
+    </row>
+    <row r="30" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
+      <c r="Q30" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30" s="11"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
+      <c r="T30" s="11"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
-      <c r="Y30" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK30" s="12"/>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="24"/>
-      <c r="AN30" s="12"/>
-    </row>
-    <row r="31" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="24"/>
+      <c r="AH30" s="12"/>
+    </row>
+    <row r="31" spans="1:34" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -3171,17 +3147,13 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="R31" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -3191,78 +3163,346 @@
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL31" s="11" t="s">
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="12"/>
+    </row>
+    <row r="32" spans="1:34" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="24"/>
+      <c r="AH32" s="12"/>
+    </row>
+    <row r="33" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="V33" s="9"/>
+      <c r="W33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH33" s="12"/>
+    </row>
+    <row r="34" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AM31" s="24"/>
-      <c r="AN31" s="12"/>
-    </row>
-    <row r="32" spans="1:40" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="22"/>
-      <c r="AM32" s="27"/>
-      <c r="AN32" s="22"/>
-    </row>
-    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="12"/>
+    </row>
+    <row r="35" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="12"/>
+    </row>
+    <row r="36" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH36" s="12"/>
+    </row>
+    <row r="37" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="12"/>
+    </row>
+    <row r="38" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V38" s="19"/>
+      <c r="W38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="27"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH38" s="22"/>
+    </row>
+    <row r="39" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
